--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -124,35 +124,45 @@
     <t>0812_4: FSRCNN_origin_target_s64</t>
   </si>
   <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0812_5: FSRCNN_s12_m8</t>
+  </si>
+  <si>
+    <t>30次，0.2</t>
+  </si>
+  <si>
+    <t>30次，0.3</t>
+  </si>
+  <si>
+    <t>0812_6：FSRCNN_s12_m16</t>
+  </si>
+  <si>
+    <t>有无shrinking层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0813_1: FSRCNN_s64_m4_noshrink</t>
+  </si>
+  <si>
+    <t>30次，0.4</t>
+  </si>
+  <si>
     <t>增大batchsize到128会造成过拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0812_5: FSRCNN_s12_m8</t>
-  </si>
-  <si>
-    <t>30次，0.2</t>
-  </si>
-  <si>
-    <t>30次，0.3</t>
-  </si>
-  <si>
-    <t>0812_6：FSRCNN_s12_m16</t>
-  </si>
-  <si>
-    <t>有无shrinking层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
+    <t>0813_2: FSRCNN_s64_m4_noshrink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,6 +263,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -595,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -639,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1">
         <v>20</v>
@@ -680,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1">
         <v>20</v>
@@ -721,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1">
         <v>20</v>
@@ -762,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1">
         <v>60</v>
@@ -800,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>32</v>
@@ -841,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="5">
         <v>60</v>
@@ -882,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="6">
         <v>128</v>
@@ -923,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2">
         <v>60</v>
@@ -961,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1">
         <v>64</v>
@@ -999,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1">
         <v>64</v>
@@ -1037,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1">
         <v>64</v>
@@ -1054,7 +1067,7 @@
     </row>
     <row r="13" spans="1:13" ht="15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>42.575940000000003</v>
@@ -1066,7 +1079,7 @@
         <v>1E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1075,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1">
         <v>64</v>
@@ -1092,7 +1105,7 @@
     </row>
     <row r="14" spans="1:13" ht="15">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
         <v>41.850940000000001</v>
@@ -1104,7 +1117,7 @@
         <v>1E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -1113,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1">
         <v>64</v>
@@ -1128,7 +1141,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25">
+    <row r="15" spans="1:13" ht="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>96.180499999999995</v>
+      </c>
+      <c r="C15" s="10">
+        <v>84.366127014160099</v>
+      </c>
+      <c r="E15">
+        <v>1E-4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
       <c r="G15">
         <v>64</v>
       </c>
@@ -1136,20 +1164,37 @@
         <v>4</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13">
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1">
+        <v>64</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="M21" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13">
-      <c r="E18" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -162,7 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0813_2: FSRCNN_s64_m4_noshrink</t>
+    <t>0813_2: FSRCNN_s64_m4_noshrink再尝试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -958,7 +958,7 @@
       <c r="B10" s="1">
         <v>43.253889999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>54.602127075195298</v>
       </c>
       <c r="E10">
@@ -1163,7 +1163,7 @@
       <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="1">
@@ -1179,9 +1179,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" t="s">
         <v>41</v>
+      </c>
+      <c r="E16">
+        <v>1E-4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1">
+        <v>64</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="G17">
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="5:13">

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -163,6 +163,33 @@
   </si>
   <si>
     <t>0813_2: FSRCNN_s64_m4_noshrink再尝试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30次，0.5</t>
+  </si>
+  <si>
+    <r>
+      <t>0813_3: FSRCNN_s12_m4_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fullyconnect</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0813_4: FSRCNN_s12_m4_adagrad</t>
+  </si>
+  <si>
+    <t>Adagrad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +235,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -572,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -958,7 +993,7 @@
       <c r="B10" s="1">
         <v>43.253889999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>54.602127075195298</v>
       </c>
       <c r="E10">
@@ -1002,7 +1037,7 @@
       <c r="E11">
         <v>1E-4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="5">
@@ -1183,6 +1218,12 @@
       <c r="A16" t="s">
         <v>41</v>
       </c>
+      <c r="B16" s="1">
+        <v>100.654465</v>
+      </c>
+      <c r="C16" s="1">
+        <v>86.873916625976506</v>
+      </c>
       <c r="E16">
         <v>1E-4</v>
       </c>
@@ -1211,15 +1252,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="5:13">
+    <row r="17" spans="1:13" ht="15">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>124.76148999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>108.30909</v>
+      </c>
+      <c r="E17">
+        <v>1E-4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
       <c r="G17">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <v>124.466286</v>
+      </c>
+      <c r="C18" s="1">
+        <v>108.008460998535</v>
+      </c>
+      <c r="E18">
+        <v>1E-4</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="E20" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +1309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="5:13">
+    <row r="21" spans="1:13">
       <c r="M21" t="s">
         <v>27</v>
       </c>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -190,6 +190,22 @@
   </si>
   <si>
     <t>Adagrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adagrad没有用，不知有没有可能是使用2GPU的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1274,6 +1290,18 @@
       <c r="H17">
         <v>4</v>
       </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1">
+        <v>64</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
       <c r="M17" t="s">
         <v>45</v>
       </c>
@@ -1300,6 +1328,21 @@
       <c r="H18">
         <v>4</v>
       </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="1">
+        <v>64</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="E20" t="s">
@@ -1310,6 +1353,9 @@
       </c>
     </row>
     <row r="21" spans="1:13">
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
       <c r="M21" t="s">
         <v>27</v>
       </c>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -134,9 +134,6 @@
     <t>30次，0.2</t>
   </si>
   <si>
-    <t>30次，0.3</t>
-  </si>
-  <si>
     <t>0812_6：FSRCNN_s12_m16</t>
   </si>
   <si>
@@ -155,18 +152,12 @@
     <t>0813_1: FSRCNN_s64_m4_noshrink</t>
   </si>
   <si>
-    <t>30次，0.4</t>
-  </si>
-  <si>
     <t>增大batchsize到128会造成过拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0813_2: FSRCNN_s64_m4_noshrink再尝试</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30次，0.5</t>
   </si>
   <si>
     <r>
@@ -206,6 +197,17 @@
   </si>
   <si>
     <t>Adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0813_7: FSRCNN_s32_m4_batchsize1</t>
+  </si>
+  <si>
+    <t>30次，0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70次，0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -662,7 +664,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -703,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1">
         <v>20</v>
@@ -744,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1">
         <v>20</v>
@@ -785,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1">
         <v>20</v>
@@ -826,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1">
         <v>60</v>
@@ -864,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6">
         <v>32</v>
@@ -905,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5">
         <v>60</v>
@@ -946,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="6">
         <v>128</v>
@@ -987,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2">
         <v>60</v>
@@ -1025,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1">
         <v>64</v>
@@ -1063,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1">
         <v>64</v>
@@ -1101,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1">
         <v>64</v>
@@ -1139,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1">
         <v>64</v>
@@ -1156,7 +1158,7 @@
     </row>
     <row r="14" spans="1:13" ht="15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>41.850940000000001</v>
@@ -1168,7 +1170,7 @@
         <v>1E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -1177,7 +1179,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1">
         <v>64</v>
@@ -1194,7 +1196,7 @@
     </row>
     <row r="15" spans="1:13" ht="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>96.180499999999995</v>
@@ -1206,7 +1208,7 @@
         <v>1E-4</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>64</v>
@@ -1215,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1">
         <v>64</v>
@@ -1232,7 +1234,7 @@
     </row>
     <row r="16" spans="1:13" ht="15">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>100.654465</v>
@@ -1244,7 +1246,7 @@
         <v>1E-4</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G16">
         <v>64</v>
@@ -1270,7 +1272,7 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>124.76148999999999</v>
@@ -1282,7 +1284,7 @@
         <v>1E-4</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1291,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1">
         <v>64</v>
@@ -1303,12 +1305,12 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
         <v>124.466286</v>
@@ -1320,7 +1322,7 @@
         <v>1E-4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -1329,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1">
         <v>64</v>
@@ -1341,7 +1343,45 @@
         <v>10</v>
       </c>
       <c r="M18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1">
+        <v>48.982779999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>48.281036376953097</v>
+      </c>
+      <c r="E19">
+        <v>1E-4</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1349,12 +1389,12 @@
         <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="F21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M21" t="s">
         <v>27</v>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FSRCNN" sheetId="1" r:id="rId1"/>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1353,7 +1353,7 @@
       <c r="B19" s="1">
         <v>48.982779999999998</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>48.281036376953097</v>
       </c>
       <c r="E19">
@@ -1384,19 +1384,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="E20" t="s">
+    <row r="25" spans="1:13">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="F21" t="s">
+    <row r="26" spans="1:13">
+      <c r="F26" t="s">
         <v>43</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M26" t="s">
         <v>27</v>
       </c>
     </row>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FSRCNN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -205,6 +205,13 @@
   <si>
     <t>30次，0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70次，0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0815_1:FSRCNN_s32_m16_batchsize1</t>
   </si>
   <si>
     <t>70次，0.1</t>
@@ -623,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1011,7 +1018,7 @@
       <c r="B10" s="1">
         <v>43.253889999999998</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>54.602127075195298</v>
       </c>
       <c r="E10">
@@ -1087,7 +1094,7 @@
       <c r="B12" s="1">
         <v>42.188434999999998</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>52.235881805419901</v>
       </c>
       <c r="E12">
@@ -1353,7 +1360,7 @@
       <c r="B19" s="1">
         <v>48.982779999999998</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>48.281036376953097</v>
       </c>
       <c r="E19">
@@ -1384,20 +1391,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="F26" t="s">
-        <v>43</v>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>41.340076000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>40.871295928955</v>
+      </c>
+      <c r="E20">
+        <v>1E-4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15">
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15">
+      <c r="J22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15">
+      <c r="J23" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15">
+      <c r="J24" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15">
+      <c r="J25" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15">
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
       </c>
       <c r="M26" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15">
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15">
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10">
+      <c r="F34" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>70次，0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0815_1:FSRCNN_s32_m8_batchsize1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1398,7 +1402,7 @@
       <c r="B20" s="1">
         <v>41.340076000000003</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>40.871295928955</v>
       </c>
       <c r="E20">
@@ -1430,14 +1434,41 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>41.705869999999997</v>
+      </c>
+      <c r="C21">
+        <v>41.092967987060497</v>
+      </c>
+      <c r="E21">
+        <v>1E-4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
       <c r="G21">
         <v>32</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
       </c>
       <c r="J21" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15">

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FSRCNN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>0815_1:FSRCNN_s32_m8_batchsize1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -645,52 +649,56 @@
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -700,38 +708,39 @@
       <c r="C2" s="1">
         <v>121.37390000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>1.3049999999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>12</v>
       </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -741,38 +750,39 @@
       <c r="C3" s="1">
         <v>2346.6039999999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>0.61050000000000004</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>12</v>
       </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -782,38 +792,39 @@
       <c r="C4" s="1">
         <v>97.384254455566406</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>0.38610640168190002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>12</v>
       </c>
-      <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1">
         <v>20</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -823,76 +834,77 @@
       <c r="C5" s="1">
         <v>108.023399353027</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>0.97405391931533802</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1">
         <v>60</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>105.2026</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.50260000000000005</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
         <v>32</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -902,38 +914,38 @@
       <c r="C7">
         <v>87.020095825195298</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.48817479610443099</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1E-4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="5">
         <v>60</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -943,38 +955,39 @@
       <c r="C8" s="1">
         <v>2946184</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>0.36066299676895103</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1E-4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>32</v>
       </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="6">
         <v>128</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -984,38 +997,39 @@
       <c r="C9" s="1">
         <v>87.225524902343693</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>0.48763826489448497</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>0.01</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>32</v>
       </c>
-      <c r="H9" s="1">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2">
         <v>60</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
       <c r="L9" s="1">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1025,35 +1039,35 @@
       <c r="C10">
         <v>54.602127075195298</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1E-4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>32</v>
       </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1">
         <v>64</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1063,35 +1077,36 @@
       <c r="C11" s="1">
         <v>58.624824523925703</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="1"/>
+      <c r="F11">
         <v>1E-4</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>12</v>
       </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1">
         <v>64</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1101,35 +1116,35 @@
       <c r="C12">
         <v>52.235881805419901</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1E-4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>64</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1">
         <v>64</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1139,35 +1154,36 @@
       <c r="C13" s="1">
         <v>61.368896484375</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="1"/>
+      <c r="F13">
         <v>1E-4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="J13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="1">
         <v>64</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1177,35 +1193,36 @@
       <c r="C14" s="1">
         <v>57.379863739013601</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="1"/>
+      <c r="F14">
         <v>1E-4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="J14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1">
         <v>64</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1215,35 +1232,36 @@
       <c r="C15" s="10">
         <v>84.366127014160099</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="10"/>
+      <c r="F15">
         <v>1E-4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>64</v>
       </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>64</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1253,35 +1271,36 @@
       <c r="C16" s="1">
         <v>86.873916625976506</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="1"/>
+      <c r="F16">
         <v>1E-4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>64</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>64</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15">
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1291,35 +1310,36 @@
       <c r="C17" s="1">
         <v>108.30909</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="1"/>
+      <c r="F17">
         <v>1E-4</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>12</v>
       </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>64</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1329,35 +1349,36 @@
       <c r="C18" s="1">
         <v>108.008460998535</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="1"/>
+      <c r="F18">
         <v>1E-4</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>64</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1367,35 +1388,35 @@
       <c r="C19">
         <v>48.281036376953097</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1E-4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12</v>
       </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19">
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1405,35 +1426,36 @@
       <c r="C20" s="3">
         <v>40.871295928955</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="3"/>
+      <c r="F20">
         <v>1E-4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>32</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1443,100 +1465,208 @@
       <c r="C21">
         <v>41.092967987060497</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1E-4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>32</v>
       </c>
-      <c r="H21">
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>40.956325999999997</v>
+      </c>
+      <c r="C22">
+        <v>41.726993560791001</v>
+      </c>
+      <c r="D22">
+        <v>7227.3341720172102</v>
+      </c>
+      <c r="F22">
+        <v>1E-4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>40.430534000000002</v>
+      </c>
+      <c r="C23">
+        <v>61.510787963867102</v>
+      </c>
+      <c r="D23">
+        <v>10653.9763021253</v>
+      </c>
+      <c r="F23">
+        <v>1E-4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="1">
+        <v>32</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>41.411568000000003</v>
+      </c>
+      <c r="C24">
+        <v>65.267471313476506</v>
+      </c>
+      <c r="D24">
+        <v>11304.6598094164</v>
+      </c>
+      <c r="F24">
+        <v>1E-4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="1">
+        <v>64</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
+      <c r="K25" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15">
-      <c r="J22" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15">
-      <c r="J23" s="1">
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
+      <c r="H27">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15">
-      <c r="J24" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15">
-      <c r="J25" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15">
-      <c r="G26">
-        <v>32</v>
-      </c>
-      <c r="H26">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15">
-      <c r="G27">
-        <v>32</v>
-      </c>
-      <c r="H27">
+      <c r="I27">
         <v>20</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15">
-      <c r="G28">
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
+      <c r="H28">
         <v>24</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>16</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10">
-      <c r="E33" t="s">
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="5:10">
-      <c r="F34" t="s">
+    <row r="34" spans="6:11">
+      <c r="G34" t="s">
         <v>43</v>
       </c>
     </row>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FSRCNN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>dtw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0819_1:lr_0.1_30step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30次，0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +649,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1617,8 +1625,26 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" s="1">
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15">

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>30次，0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0819_2:lr_0.01_30step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +653,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1628,6 +1632,15 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
+      <c r="B25">
+        <v>102.85856</v>
+      </c>
+      <c r="C25">
+        <v>108.30303955078099</v>
+      </c>
+      <c r="D25">
+        <v>18758.641145001598</v>
+      </c>
       <c r="F25">
         <v>0.1</v>
       </c>
@@ -1646,19 +1659,46 @@
       <c r="K25" s="1">
         <v>1</v>
       </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>43.752777000000002</v>
+      </c>
+      <c r="C26">
+        <v>43.098396301269503</v>
+      </c>
+      <c r="D26">
+        <v>7464.8609841271</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
       <c r="H26">
         <v>32</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15">
@@ -1683,15 +1723,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:11">
+    <row r="33" spans="6:14">
       <c r="F33" t="s">
         <v>26</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="6:11">
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
       <c r="G34" t="s">
         <v>43</v>
       </c>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>0819_2:lr_0.01_30step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0820_1:upsample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30次，0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1435,7 +1443,7 @@
       <c r="B20" s="1">
         <v>41.340076000000003</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>40.871295928955</v>
       </c>
       <c r="D20" s="3"/>
@@ -1702,25 +1710,47 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15">
-      <c r="H27">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>28.508531999999999</v>
+      </c>
+      <c r="C28">
+        <v>35.72652053833</v>
+      </c>
+      <c r="D28">
+        <v>6188.0199015613998</v>
+      </c>
+      <c r="F28">
+        <v>1E-4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28">
         <v>32</v>
-      </c>
-      <c r="I27">
-        <v>20</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15">
-      <c r="H28">
-        <v>24</v>
       </c>
       <c r="I28">
         <v>16</v>
       </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="6:14">

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -238,11 +238,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0820_1:upsample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30次，0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0820_2:upsample_lastconv最后一层conv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0820_1:upsample最后一层deconv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1714,7 +1718,7 @@
     </row>
     <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>28.508531999999999</v>
@@ -1729,7 +1733,7 @@
         <v>1E-4</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>32</v>
@@ -1750,6 +1754,47 @@
         <v>10</v>
       </c>
       <c r="N28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>29.188402</v>
+      </c>
+      <c r="C29">
+        <v>41.874683380126903</v>
+      </c>
+      <c r="D29">
+        <v>7252.9129362705298</v>
+      </c>
+      <c r="F29">
+        <v>1E-4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="1">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29" t="s">
         <v>18</v>
       </c>
     </row>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>0820_1:upsample最后一层deconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0820_1:upsample最后一层deconv 继续训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +669,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1798,6 +1802,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>25.837135</v>
+      </c>
+      <c r="C30">
+        <v>35.193813323974602</v>
+      </c>
+      <c r="D30">
+        <v>6095.74497321525</v>
+      </c>
+    </row>
     <row r="33" spans="6:14">
       <c r="F33" t="s">
         <v>26</v>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -1816,6 +1816,17 @@
         <v>6095.74497321525</v>
       </c>
     </row>
+    <row r="31" spans="1:14">
+      <c r="B31">
+        <v>25.003202000000002</v>
+      </c>
+      <c r="C31">
+        <v>34.999973297119098</v>
+      </c>
+      <c r="D31">
+        <v>6062.1707007486102</v>
+      </c>
+    </row>
     <row r="33" spans="6:14">
       <c r="F33" t="s">
         <v>26</v>

--- a/实验整理.xlsx
+++ b/实验整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>train0804_resnet</t>
   </si>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>0820_1:upsample最后一层deconv 继续训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0821_2:split10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1827,19 +1831,60 @@
         <v>6062.1707007486102</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
-      <c r="F33" t="s">
+    <row r="33" spans="1:14" ht="15">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>26.099</v>
+      </c>
+      <c r="C33">
+        <v>31.2515563964843</v>
+      </c>
+      <c r="D33">
+        <v>5412.9279728337096</v>
+      </c>
+      <c r="F33">
+        <v>1E-4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="1">
+        <v>64</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K37" t="s">
         <v>38</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
-      <c r="G34" t="s">
+    <row r="38" spans="1:14">
+      <c r="G38" t="s">
         <v>43</v>
       </c>
     </row>
